--- a/汽柴煤油2.0/data_input/苯乙烯-纯苯价差.xlsx
+++ b/汽柴煤油2.0/data_input/苯乙烯-纯苯价差.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2855"/>
+  <dimension ref="A1:C2857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29211,7 +29211,29 @@
         <v>1005</v>
       </c>
       <c r="C2855" t="n">
-        <v>-1468.5166</v>
+        <v>-1442.0598</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B2856" t="n">
+        <v>975</v>
+      </c>
+      <c r="C2856" t="n">
+        <v>-1396.7268</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B2857" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C2857" t="n">
+        <v>-1359.2392</v>
       </c>
     </row>
   </sheetData>
